--- a/apn/doc/全国大巴门户页面列表.xlsx
+++ b/apn/doc/全国大巴门户页面列表.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\github\Traffic\apn\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18000" yWindow="0" windowWidth="20160" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="18000" yWindow="0" windowWidth="20160" windowHeight="21075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="全部页面" sheetId="1" r:id="rId1"/>
     <sheet name="手工" sheetId="2" r:id="rId2"/>
     <sheet name="自动" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
   <si>
     <t>头条首页</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,6 +620,330 @@
   </si>
   <si>
     <t>(交通法规截取部分内容, 并提供全文下载, 暂定txt格式)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/china.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/world.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/society.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/ent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/2013-09-14/xxxx.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/top.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/mandatory.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/best.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/hot.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/offline.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/fight.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/action.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/game/ent.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/news/headline.html   如有分页，后续加数字，例  /news/headline2.html,下同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/top.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/hot.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/pop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/category.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/read.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/camera.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/movie.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/browser.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/security.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/navigate.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/shop.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/im.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/cat/input.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/idea.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/beauty.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/funny.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/animal.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/child.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/joke.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/pic/accident.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/story.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/action.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/comedy.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/war.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/love.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/comic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/short.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/funny.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/science.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/movie/m/xxxx.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/top.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/topnew.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/tophot.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/topclassic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/category.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/cat/cgv.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/cat/hk.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/cat/classic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/cat/band.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/cat/land.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/cat/love.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/music/cat/couple.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/novel/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/friend/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/travel/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/travel/content.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/travel/special.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/traffic/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/traffic/security.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/traffic/law.thml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/traffic/sign.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/traffic/comic.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lottery/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/lottery/content.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/shop/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/food/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/food/content.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/job/content.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒体文件独立目录,放在apache上？;网页素材文件建议还是同网页目录一起</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,6 +1246,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="157">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -995,88 +1325,95 @@
     <cellStyle name="超链接" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="156" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1404,19 +1741,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="4.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="71.1640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
+    <col min="2" max="3" width="4.125" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="5" max="5" width="71.125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B1" s="7">
         <f>COUNTIF(B11:D100, "*@")</f>
         <v>27</v>
@@ -1430,7 +1767,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
       <c r="E2" s="7" t="s">
         <v>90</v>
       </c>
@@ -1439,610 +1776,853 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C4" s="12" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="12"/>
+      <c r="E4" s="7" t="s">
+        <v>165</v>
+      </c>
       <c r="G4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C5" s="12" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="12"/>
+      <c r="E5" s="7" t="s">
+        <v>150</v>
+      </c>
       <c r="F5" s="14"/>
       <c r="G5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="E6" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C7" s="12" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="E7" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C8" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="E8" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C9" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D9" s="8"/>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="E9" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="E11" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="2:7">
+      <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C14" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D14" s="9"/>
-    </row>
-    <row r="15" spans="2:7">
+      <c r="E14" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C15" s="10" t="s">
         <v>107</v>
       </c>
       <c r="D15" s="9"/>
-    </row>
-    <row r="16" spans="2:7">
+      <c r="E15" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="C16" s="10" t="s">
         <v>108</v>
       </c>
       <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="E16" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C17" s="10" t="s">
         <v>109</v>
       </c>
       <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="E17" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C18" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="E18" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C19" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="E19" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C20" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="12"/>
-    </row>
-    <row r="21" spans="2:4">
+      <c r="E20" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C21" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D21" s="12"/>
-    </row>
-    <row r="22" spans="2:4">
+      <c r="E21" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="E23" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C24" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C25" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C27" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D27" s="12"/>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="E27" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C28" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="13"/>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="E28" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C29" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D29" s="13"/>
-    </row>
-    <row r="30" spans="2:4">
+      <c r="E29" s="7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C30" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D30" s="13"/>
-    </row>
-    <row r="31" spans="2:4">
+      <c r="E30" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C31" s="13" t="s">
         <v>95</v>
       </c>
       <c r="D31" s="13"/>
-    </row>
-    <row r="32" spans="2:4">
+      <c r="E31" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C32" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D32" s="13"/>
-    </row>
-    <row r="33" spans="2:4">
+      <c r="E32" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C33" s="13" t="s">
         <v>97</v>
       </c>
       <c r="D33" s="13"/>
-    </row>
-    <row r="34" spans="2:4">
+      <c r="E33" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C34" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D34" s="13"/>
-    </row>
-    <row r="35" spans="2:4">
+      <c r="E34" s="7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C35" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D35" s="13"/>
-    </row>
-    <row r="36" spans="2:4">
+      <c r="E35" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C36" s="13" t="s">
         <v>140</v>
       </c>
       <c r="D36" s="13"/>
-    </row>
-    <row r="37" spans="2:4">
+      <c r="E36" s="7" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="39" spans="2:4">
+      <c r="E38" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C39" s="12" t="s">
         <v>91</v>
       </c>
       <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="2:4">
+      <c r="E39" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C40" s="13" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="2:4">
+      <c r="E40" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C41" s="13" t="s">
         <v>6</v>
       </c>
       <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="2:4">
+      <c r="E41" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C42" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="2:4">
+      <c r="E42" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C43" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="12"/>
-    </row>
-    <row r="44" spans="2:4">
+      <c r="E43" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C44" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="12"/>
-    </row>
-    <row r="45" spans="2:4">
+      <c r="E44" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="12"/>
-    </row>
-    <row r="46" spans="2:4">
+      <c r="E45" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B47" s="12" t="s">
         <v>142</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
-    </row>
-    <row r="48" spans="2:4">
+      <c r="E47" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C48" s="13" t="s">
         <v>141</v>
       </c>
       <c r="D48" s="13"/>
-    </row>
-    <row r="49" spans="2:4">
+      <c r="E48" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C49" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="12"/>
-    </row>
-    <row r="50" spans="2:4">
+      <c r="E49" s="7" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C50" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="12"/>
-    </row>
-    <row r="51" spans="2:4">
+      <c r="E50" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C51" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="12"/>
-    </row>
-    <row r="52" spans="2:4">
+      <c r="E51" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C52" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D52" s="12"/>
-    </row>
-    <row r="53" spans="2:4">
+      <c r="E52" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C53" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="12"/>
-    </row>
-    <row r="54" spans="2:4">
+      <c r="E53" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C54" s="13" t="s">
         <v>16</v>
       </c>
       <c r="D54" s="12"/>
-    </row>
-    <row r="55" spans="2:4">
+      <c r="E54" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C55" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="12"/>
-    </row>
-    <row r="56" spans="2:4">
+      <c r="E55" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C56" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D56" s="12"/>
-    </row>
-    <row r="57" spans="2:4">
+      <c r="E56" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C57" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D57" s="8"/>
-    </row>
-    <row r="58" spans="2:4">
+      <c r="E57" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="60" spans="2:4">
+      <c r="E59" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="2:4">
+      <c r="E60" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D61" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="2:4">
+      <c r="E61" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D62" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="63" spans="2:4">
+      <c r="E62" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D63" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="64" spans="2:4">
+      <c r="E63" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C64" s="9" t="s">
         <v>143</v>
       </c>
       <c r="D64" s="9"/>
-    </row>
-    <row r="65" spans="2:5">
+      <c r="E64" s="7" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D65" s="12" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="2:5">
+      <c r="E65" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D66" s="13" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="2:5">
+      <c r="E66" s="7" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D67" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="2:5">
+      <c r="E67" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D68" s="13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="69" spans="2:5">
+      <c r="E68" s="7" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D69" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="2:5">
+      <c r="E69" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D70" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="2:5">
+      <c r="E70" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D71" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="72" spans="2:5">
+      <c r="E71" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B73" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="75" spans="2:5">
+      <c r="E73" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B75" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="77" spans="2:5">
+      <c r="E75" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B77" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="2:5">
+      <c r="E77" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C78" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="2:5">
+      <c r="E78" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C79" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="2:5">
+      <c r="E79" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D80" s="14" t="s">
         <v>144</v>
       </c>
       <c r="E80" s="14"/>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="83" spans="2:5">
+      <c r="E82" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C83" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D83" s="8"/>
-    </row>
-    <row r="84" spans="2:5">
+      <c r="E83" s="7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C84" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D84" s="8"/>
-    </row>
-    <row r="85" spans="2:5">
+      <c r="E84" s="7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
       <c r="D85" s="14" t="s">
         <v>148</v>
       </c>
       <c r="E85" s="14"/>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C86" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D86" s="12"/>
-    </row>
-    <row r="87" spans="2:5">
+      <c r="E86" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C87" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D87" s="12"/>
-    </row>
-    <row r="89" spans="2:5">
+      <c r="E87" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B89" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="2:5">
+      <c r="E89" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C90" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D90" s="8"/>
-    </row>
-    <row r="92" spans="2:5">
+      <c r="E90" s="7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B92" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="94" spans="2:5">
+      <c r="E92" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B94" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="95" spans="2:5">
+      <c r="E94" s="7" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C95" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D95" s="8"/>
-    </row>
-    <row r="97" spans="2:4">
+      <c r="E95" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B97" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="98" spans="2:4">
+      <c r="E97" s="7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C98" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D98" s="8"/>
-    </row>
-    <row r="100" spans="2:4">
+      <c r="E98" s="7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B100" s="14" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
-    </row>
-    <row r="101" spans="2:4">
+      <c r="E100" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C101" s="7" t="s">
         <v>120</v>
       </c>
       <c r="D101" s="7"/>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C102" s="7"/>
       <c r="D102" s="7" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C103" s="7"/>
       <c r="D103" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C104" s="7"/>
       <c r="D104" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C105" s="7"/>
       <c r="D105" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C106" s="7"/>
       <c r="D106" s="7" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C107" s="7"/>
       <c r="D107" s="7" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C108" s="7"/>
       <c r="D108" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C109" s="7"/>
       <c r="D109" s="7" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C110" s="7"/>
       <c r="D110" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C111" s="7"/>
       <c r="D111" s="7" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C112" s="7"/>
       <c r="D112" s="7" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="113" spans="3:4">
+    <row r="113" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C113" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="114" spans="3:4">
+    <row r="114" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D114" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="115" spans="3:4">
+    <row r="115" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D115" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="116" spans="3:4">
+    <row r="116" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D116" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="117" spans="3:4">
+    <row r="117" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D117" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="3:4">
+    <row r="118" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D118" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="3:4">
+    <row r="119" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D119" t="s">
         <v>136</v>
       </c>
@@ -2050,7 +2630,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2067,13 +2647,13 @@
       <selection activeCell="B2" sqref="B2:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>72</v>
@@ -2085,7 +2665,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
@@ -2093,7 +2673,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
@@ -2101,7 +2681,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
@@ -2109,7 +2689,7 @@
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
@@ -2117,7 +2697,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>34</v>
       </c>
@@ -2125,7 +2705,7 @@
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>35</v>
       </c>
@@ -2133,7 +2713,7 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2721,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
@@ -2149,7 +2729,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>61</v>
       </c>
@@ -2157,7 +2737,7 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>62</v>
       </c>
@@ -2165,7 +2745,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
@@ -2173,7 +2753,7 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
@@ -2181,7 +2761,7 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
@@ -2189,7 +2769,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>45</v>
       </c>
@@ -2197,7 +2777,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
@@ -2205,7 +2785,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>48</v>
       </c>
@@ -2213,7 +2793,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2221,7 +2801,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>68</v>
       </c>
@@ -2229,7 +2809,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>69</v>
       </c>
@@ -2237,7 +2817,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -2245,7 +2825,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
@@ -2253,7 +2833,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>54</v>
       </c>
@@ -2281,12 +2861,12 @@
       <selection activeCell="B2" sqref="B2:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="54.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
         <v>73</v>
@@ -2301,7 +2881,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>88</v>
       </c>
@@ -2310,7 +2890,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="2:6">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
@@ -2319,7 +2899,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>79</v>
       </c>
@@ -2328,7 +2908,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>80</v>
       </c>
@@ -2337,7 +2917,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>87</v>
       </c>
@@ -2346,7 +2926,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>86</v>
       </c>
@@ -2355,7 +2935,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>81</v>
       </c>
@@ -2364,7 +2944,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="2:6">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>77</v>
       </c>
@@ -2373,7 +2953,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="2:6">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>82</v>
       </c>
@@ -2382,7 +2962,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>83</v>
       </c>
@@ -2391,7 +2971,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
         <v>84</v>
       </c>
@@ -2400,7 +2980,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>85</v>
       </c>
@@ -2409,7 +2989,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="2:6">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>78</v>
       </c>
